--- a/public/assets/examexcel/Data Siswa Kelas XII RPL.xlsx
+++ b/public/assets/examexcel/Data Siswa Kelas XII RPL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5da8a393d89142a7/Dokumen/Web-Kelulusan/public/assets/examexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_8A4B3C6ED09CDD90A09B6C82F3C09D2EE5F1F77D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{906D23E2-7764-4E81-9B3A-D35098433910}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="226">
   <si>
     <t>NAMA PESERTA DIDIK</t>
   </si>
@@ -708,12 +700,15 @@
   </si>
   <si>
     <t>Kode Jurusan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
@@ -1448,16 +1443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1481,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1513,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1540,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1567,7 +1562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1594,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1621,7 +1616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1648,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1675,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1702,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1729,13 +1724,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="9">
-        <v>2021100075</v>
+      <c r="C11" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>40</v>
@@ -1756,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1783,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1810,7 +1805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1837,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1864,7 +1859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1918,7 +1913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1945,7 +1940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1972,7 +1967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -1999,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2026,7 +2021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -2053,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2080,7 +2075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2107,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -2134,7 +2129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2161,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2188,7 +2183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -2215,7 +2210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2242,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2269,7 +2264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -2296,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2323,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2377,7 +2372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2404,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2431,7 +2426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2458,7 +2453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2485,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2512,7 +2507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2539,7 +2534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2566,7 +2561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2593,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2620,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -2647,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="22">
         <v>44</v>
       </c>
@@ -2674,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -2701,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -2728,7 +2723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -2755,7 +2750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -2782,7 +2777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -2809,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="8">
         <v>51</v>
       </c>
@@ -2836,7 +2831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A52" s="8">
         <v>52</v>
       </c>
@@ -2863,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="8">
         <v>53</v>
       </c>
@@ -2890,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="8">
         <v>54</v>
       </c>
@@ -2917,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="8">
         <v>55</v>
       </c>
@@ -2944,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="8">
         <v>56</v>
       </c>
@@ -2971,7 +2966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A57" s="8">
         <v>57</v>
       </c>
@@ -2998,7 +2993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="8">
         <v>58</v>
       </c>
@@ -3025,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A59" s="8">
         <v>59</v>
       </c>
@@ -3052,7 +3047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A60" s="8">
         <v>60</v>
       </c>
@@ -3079,7 +3074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A61" s="8">
         <v>61</v>
       </c>
@@ -3106,7 +3101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A62" s="8">
         <v>62</v>
       </c>
@@ -3133,7 +3128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A63" s="8">
         <v>63</v>
       </c>
@@ -3160,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="8">
         <v>64</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="8">
         <v>65</v>
       </c>
@@ -3214,7 +3209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A66" s="8">
         <v>66</v>
       </c>
@@ -3241,7 +3236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="8">
         <v>67</v>
       </c>
@@ -3268,7 +3263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="8">
         <v>68</v>
       </c>
@@ -3295,7 +3290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A69" s="8">
         <v>69</v>
       </c>
@@ -3322,7 +3317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A70" s="8">
         <v>70</v>
       </c>
@@ -3349,7 +3344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="8">
         <v>71</v>
       </c>
@@ -3376,7 +3371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="8">
         <v>72</v>
       </c>
@@ -3403,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A73" s="8">
         <v>73</v>
       </c>
@@ -3430,7 +3425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="34.9" x14ac:dyDescent="0.45">
       <c r="A74" s="8">
         <v>74</v>
       </c>
@@ -3457,7 +3452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A75" s="8">
         <v>75</v>
       </c>
@@ -3484,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="15">
         <v>76</v>
       </c>
@@ -3513,5 +3508,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>